--- a/KittingToolResources/SourceChecklists/TAP223-000G01-430RC Cableset (KittingTool).xlsx
+++ b/KittingToolResources/SourceChecklists/TAP223-000G01-430RC Cableset (KittingTool).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Work\KittingToolCLOSEDSOURCE\KittingTool\KittingToolResources\SourceChecklists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Work\KittingSystemRepository\KittingToolResources\SourceChecklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CAAF23-1B9E-4D63-BE24-8BBB507CF946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62028B70-B0B4-4227-8721-867A2C5A4116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D2067A8-D6E1-49F0-97F5-9C8CAAAE82B0}"/>
   </bookViews>
@@ -319,7 +319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -342,20 +342,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -379,7 +370,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,9 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC0816E-B468-440B-9279-7B3EA977D9A0}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -733,7 +721,7 @@
       <c r="G1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="9" t="s">
         <v>66</v>
       </c>
     </row>
